--- a/Q2-Test Case.xlsx
+++ b/Q2-Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d6e0a537418c7ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ostad\sqa\Assignment\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF40990-E4CF-4F90-B958-6E3C1B131F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456A951-C6CD-4F70-960B-C593DEBD924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Project Name</t>
   </si>
@@ -83,24 +81,6 @@
     <t>Pre-Conditions</t>
   </si>
   <si>
-    <t>Related Free Templates</t>
-  </si>
-  <si>
-    <t>IT Project Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Risk Assessment </t>
-  </si>
-  <si>
-    <t>Server Maintenance Checklist</t>
-  </si>
-  <si>
-    <t>_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Make sure login is working</t>
-  </si>
-  <si>
     <t>Test Case Scenario</t>
   </si>
   <si>
@@ -125,26 +105,142 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>New Website</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Joe Smith</t>
-  </si>
-  <si>
     <t>1) Enter user ID 2) Enter PW 3) login</t>
+  </si>
+  <si>
+    <t>Shoe Selling Ecommerce</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>K M Saddam Hossain</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Verify that the search bar or button 
+or icon (search bar display after click) is 
+prominently displayed on the header section.</t>
+  </si>
+  <si>
+    <t>Verify that the search bar/textfield has a title/label on the header section.</t>
+  </si>
+  <si>
+    <t>Verify that search bar submit button/icon 
+should clickable on the header section.</t>
+  </si>
+  <si>
+    <t>Verify that search bar textfield 
+should fillable on the header section.</t>
+  </si>
+  <si>
+    <t>Verify that the brand should be displayed 
+on the product listing page at side bar.</t>
+  </si>
+  <si>
+    <t>Verify that the size should be displayed 
+on the product listing page at side bar</t>
+  </si>
+  <si>
+    <t>Verify that the color should be displayed 
+on the product listing page at side bar</t>
+  </si>
+  <si>
+    <t>Verify that the price range should be displayed 
+on the product listing page at side bar</t>
+  </si>
+  <si>
+    <t>Verify that the gender should be displayed 
+on the product listing page at side bar.</t>
+  </si>
+  <si>
+    <t>Verify that the rating should be displayed 
+on the product listing page at side bar.</t>
+  </si>
+  <si>
+    <t>Verify that the warrenty should be displayed 
+on the product listing page at side bar.</t>
+  </si>
+  <si>
+    <t>Verify that the offers/promotion should be displayed on the product listing page at side bar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,22 +268,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,36 +323,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -312,112 +408,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2503170</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1857585</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71838</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145D3688-8F81-42F8-89A8-E87F3ACE14F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4596130" y="0"/>
-          <a:ext cx="3984836" cy="1097998"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>448734</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>386927</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>49477</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3AB4AD-ECF7-497B-B638-02A22FB3291D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540001" y="5511800"/>
-          <a:ext cx="6305126" cy="3359944"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,158 +711,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142439C2-4A4F-4125-A1B1-034AF03278CF}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="30.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="30.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
     <col min="8" max="10" width="31.1796875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1"/>
-    <row r="4" spans="1:16" ht="25">
-      <c r="A4" s="8" t="s">
+    <row r="2" spans="1:16" ht="25">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
+      <c r="A6" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="43.5">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="29">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="29">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="29">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -882,9 +908,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:16" ht="29">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -894,9 +924,13 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:10" ht="29">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -906,9 +940,13 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:10" ht="29">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -918,9 +956,13 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:10" ht="29">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -930,9 +972,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:10" ht="29">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -942,9 +988,13 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:10" ht="29">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -954,9 +1004,13 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:10" ht="29">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -966,9 +1020,13 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:10" ht="29">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -978,9 +1036,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:10" ht="43.5">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -988,10 +1050,14 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1002,39 +1068,147 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
     <row r="28" spans="1:10">
-      <c r="F28" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="F30" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="F31" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="J14:J25">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+  <conditionalFormatting sqref="J12:J23">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J33">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J24)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1044,17 +1218,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J25" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J33" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F29" r:id="rId1" xr:uid="{3BFB4B4A-C2A8-4DE2-A7A4-0AF815E7441B}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{D577C881-8311-494A-B418-3E2DBD37DD7A}"/>
-    <hyperlink ref="F31" r:id="rId3" xr:uid="{78B6ADEB-667B-404F-8C08-1DBDF18001B8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Q2-Test Case.xlsx
+++ b/Q2-Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ostad\sqa\Assignment\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456A951-C6CD-4F70-960B-C593DEBD924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A91A7-ECBE-49FC-8D8B-CFDF05345C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
   <si>
     <t>Project Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Post-Condition</t>
-  </si>
-  <si>
     <t>Actual Results</t>
   </si>
   <si>
@@ -84,33 +81,9 @@
     <t>Test Case Scenario</t>
   </si>
   <si>
-    <t>Enter valid user ID and valid PW</t>
-  </si>
-  <si>
-    <t>Need valid email account</t>
-  </si>
-  <si>
-    <t>&lt;valid user ID&gt; &lt;valid PW&gt;</t>
-  </si>
-  <si>
-    <t>Successful login</t>
-  </si>
-  <si>
-    <t>Homepage is shown</t>
-  </si>
-  <si>
-    <t>Homepage is show</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>1) Enter user ID 2) Enter PW 3) login</t>
-  </si>
-  <si>
     <t>Shoe Selling Ecommerce</t>
   </si>
   <si>
@@ -184,6 +157,12 @@
   </si>
   <si>
     <t>TC_022</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
   </si>
   <si>
     <t>Fail</t>
@@ -233,7 +212,86 @@
 on the product listing page at side bar.</t>
   </si>
   <si>
-    <t>Verify that the offers/promotion should be displayed on the product listing page at side bar.</t>
+    <t xml:space="preserve"> Verify that the offers should be displayed 
+on the product listing page at side bar.</t>
+  </si>
+  <si>
+    <t>Verify that the product views as (list/grid) should be 
+displayed on the product listing page 
+at the top of the product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product items per page (10, 20, 30) 
+should be displayed on the 
+product listing page at the top of the product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product shorts by 
+(Best Sellers, Trending Now, Price: Low to High, Price: High to Low) 
+should be displayed on the 
+product listing page at the top of the product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product image 
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product short description
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product price 
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product stock available 
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product read more/continue reading
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Verify that the product add to card available 
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>User is on the homepage 
+or any other page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the elements or UI 
+of header section. </t>
+  </si>
+  <si>
+    <t>User is on the product listing page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the search bar / search UI 
+of header section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the search bar / search section and type random text on the textfield at search bar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the sidebar of 
+product listing page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the block before 
+products list at 
+product listing page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe individual product on 
+products list
+at product listing page. </t>
   </si>
 </sst>
 </file>
@@ -338,23 +396,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -711,76 +783,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142439C2-4A4F-4125-A1B1-034AF03278CF}">
-  <dimension ref="A2:P33"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="30.81640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="31.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="10" width="31.1796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="45.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="31.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" ht="25">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -788,7 +858,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -796,403 +866,520 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="43.5">
+    <row r="12" spans="1:14" ht="43.5">
       <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="29">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="29">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="29">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="43.5">
       <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="29">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.5">
       <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="29">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="29">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="29">
       <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="29">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="29">
       <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="29">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="29">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="29">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="29">
       <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="29">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="29">
       <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="29">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="29">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="29">
       <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="43.5">
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29">
       <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="43.5">
       <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="43.5">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="72.5">
       <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.5">
       <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="43.5">
       <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.5">
       <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="43.5">
       <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="43.5">
       <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.5">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="J12:J23">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
+  <conditionalFormatting sqref="H23:H32">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",H23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="11" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",H23)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1201,14 +1388,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J33">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J24)))</formula>
+  <conditionalFormatting sqref="H33:H34">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",H33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J24)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",H33)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H22">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",H12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="14" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",H12)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1218,7 +1421,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J33" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H34" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Q2-Test Case.xlsx
+++ b/Q2-Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ostad\sqa\Assignment\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A91A7-ECBE-49FC-8D8B-CFDF05345C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F165DFE-8A48-4BF2-9B95-3D19B78438D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="184">
   <si>
     <t>Project Name</t>
   </si>
@@ -292,13 +292,536 @@
     <t xml:space="preserve">Observe individual product on 
 products list
 at product listing page. </t>
+  </si>
+  <si>
+    <t>Test Case for Product Search Form and UI</t>
+  </si>
+  <si>
+    <t>Test Case for Product Search Results</t>
+  </si>
+  <si>
+    <t>Search bar or button 
+or icon  visable on the header section.</t>
+  </si>
+  <si>
+    <t>Title /label/ placeholder visable on the search bar on header section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit button/icon clickable of the 
+search bar on header section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input textfield will fillable  of the 
+search bar on header section. </t>
+  </si>
+  <si>
+    <t>Verify search box alignment 
+on the header section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe search bar alignment 
+on header section. </t>
+  </si>
+  <si>
+    <t>Search bar alignment with the 
+other section on header</t>
+  </si>
+  <si>
+    <t>Display brands on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display colors  on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display sizes  on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display price ranges on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display gender on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display rating on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display warrenty on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display offers on the sidebar 
+of product listing page.</t>
+  </si>
+  <si>
+    <t>Display views as (list/grid) on the product listing page 
+ for filter result representation.</t>
+  </si>
+  <si>
+    <t>Option to choose number of products
+on the product listing page 
+for filter result representation.</t>
+  </si>
+  <si>
+    <t>Option to choose shorts by
+on the product listing page 
+for filter result representation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display product image. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display product short description. </t>
+  </si>
+  <si>
+    <t>Display product price.</t>
+  </si>
+  <si>
+    <t>Verify that the product brand
+should be displayed on the 
+product listing page at product list.</t>
+  </si>
+  <si>
+    <t>Display product brand.</t>
+  </si>
+  <si>
+    <t>Display product stock.</t>
+  </si>
+  <si>
+    <t>Display read more/ continue reading .</t>
+  </si>
+  <si>
+    <t>Display add to card button.</t>
+  </si>
+  <si>
+    <t>Verify search with valid product name from header form</t>
+  </si>
+  <si>
+    <t>Verify search with partial product name from header form</t>
+  </si>
+  <si>
+    <t>Verify product listing page loads successfully</t>
+  </si>
+  <si>
+    <t>Verify search with brand filter</t>
+  </si>
+  <si>
+    <t>Verify search with price range (min only)</t>
+  </si>
+  <si>
+    <t>Verify search with price range (max only)</t>
+  </si>
+  <si>
+    <t>Verify search with valid min and max price</t>
+  </si>
+  <si>
+    <t>Verify search with invalid price range (min &gt; max)</t>
+  </si>
+  <si>
+    <t>Verify search with rating filter</t>
+  </si>
+  <si>
+    <t>Verify search with multiple filters applied simultaneously</t>
+  </si>
+  <si>
+    <t>Verify clearing one filter updates results correctly</t>
+  </si>
+  <si>
+    <t>Verify clearing all filters resets search results</t>
+  </si>
+  <si>
+    <t>Verify pagination works with filtered results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify “No results found” message</t>
+  </si>
+  <si>
+    <t>User is on the product listing page</t>
+  </si>
+  <si>
+    <t>Fiil the field with product name</t>
+  </si>
+  <si>
+    <t>Fiil the field with product partial name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the field and press submit </t>
+  </si>
+  <si>
+    <t>select brand from sidebar</t>
+  </si>
+  <si>
+    <t>choose minimum price</t>
+  </si>
+  <si>
+    <t>Choose maximum price</t>
+  </si>
+  <si>
+    <t>choose minimum and maximum price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose rating </t>
+  </si>
+  <si>
+    <t>choose all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preview the filtered result after submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preview the filtered result after reset  </t>
+  </si>
+  <si>
+    <t>preview pagination according to the result</t>
+  </si>
+  <si>
+    <t>choose invalid filter value</t>
+  </si>
+  <si>
+    <t>Error , product not found</t>
+  </si>
+  <si>
+    <t>Display product list on listing 
+page accoding to the input</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the input</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the brand</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to min price</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the max price</t>
+  </si>
+  <si>
+    <t>Display product list on listing 
+page accoding to the min and max price</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the rating</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the brand, price, rating</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the brand, price</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the empty brand, price range , rating etc</t>
+  </si>
+  <si>
+    <t>Display pagination according 
+to the result count</t>
+  </si>
+  <si>
+    <t>Display error page.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Verify search with size filter</t>
+  </si>
+  <si>
+    <t>choose size from sidebar</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to size</t>
+  </si>
+  <si>
+    <t>Verify search with color filter</t>
+  </si>
+  <si>
+    <t>select color from sidebar</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the color</t>
+  </si>
+  <si>
+    <t>Verify search with warrenty filter</t>
+  </si>
+  <si>
+    <t>Verify search with offer filter</t>
+  </si>
+  <si>
+    <t>choose warrenty from sidebar</t>
+  </si>
+  <si>
+    <t>select offer from sidebar</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to warrenty</t>
+  </si>
+  <si>
+    <t>Display product list  on listing 
+page accoding to the offer</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>Execution Statistics</t>
+  </si>
+  <si>
+    <t>Defect Overview</t>
+  </si>
+  <si>
+    <r>
+      <t>Low:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total Test Cases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Failed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Critical:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>High:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Medium:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Executed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pass Percentage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 65</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Not Executed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +849,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,17 +949,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -783,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142439C2-4A4F-4125-A1B1-034AF03278CF}">
-  <dimension ref="A2:N35"/>
+  <dimension ref="A2:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -796,29 +1433,30 @@
     <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="31.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="8" width="31.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="9" width="31.1796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -826,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -834,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -842,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -850,7 +1488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -858,7 +1496,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -866,520 +1504,1128 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="21">
+      <c r="A12" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="43.5">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:15" ht="43.5">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="29">
-      <c r="A13" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="29">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="43.5">
-      <c r="A14" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="43.5">
-      <c r="A15" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.5">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="29">
-      <c r="A16" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="29">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="29">
-      <c r="A17" s="3" t="s">
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="29">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="29">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="29">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="29">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="29">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="29">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="29">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>53</v>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="29">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="29">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>54</v>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="29">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="29">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>55</v>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="29">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="43.5">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>56</v>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="29">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>71</v>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="43.5">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="29">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>71</v>
+      <c r="D26" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="72.5">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>71</v>
+      <c r="D27" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.5">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="43.5">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>72</v>
+      <c r="D28" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="43.5">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>60</v>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="58">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>72</v>
+      <c r="D29" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.5">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="72.5">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>72</v>
+      <c r="D30" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="43.5">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>61</v>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="43.5">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>62</v>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="43.5">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="43.5">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>63</v>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="43.5">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="43.5">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>64</v>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="43.5">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="43.5">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="43.5">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="43.5">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="21">
+      <c r="A40" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="29">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="29">
+      <c r="A44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="29">
+      <c r="A45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="29">
+      <c r="A46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="29">
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="29">
+      <c r="A48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="29">
+      <c r="A49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="29">
+      <c r="A50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="43.5">
+      <c r="A51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="29">
+      <c r="A52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="29">
+      <c r="A53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="29">
+      <c r="A54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="29">
+      <c r="A55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="43.5">
+      <c r="A56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="29">
+      <c r="A57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="43.5">
+      <c r="A58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="29">
+      <c r="A59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="29">
+      <c r="A60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.5">
+      <c r="B62" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="17"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="17.5">
+      <c r="B78" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H23:H32">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",H23)))</formula>
+  <conditionalFormatting sqref="I26:I35">
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",H23)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="29" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I26)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1388,12 +2634,108 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",H33)))</formula>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",H33)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="20" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I36)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I25">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="32" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I15)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I47 I50:I52 I55:I57">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="17" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I43)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:I60">
+    <cfRule type="containsText" dxfId="7" priority="40" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="41" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I58)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I49">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I48)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I53)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I54)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -1404,24 +2746,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H22">
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",H12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" stopIfTrue="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",H12)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H34" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I37 I43:I60" xr:uid="{AFF5B022-8983-4350-AE63-01B3C510FCDE}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Q2-Test Case.xlsx
+++ b/Q2-Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ostad\sqa\Assignment\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F165DFE-8A48-4BF2-9B95-3D19B78438D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61827CA3-F4AE-4A33-B993-D50732CD836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
   </bookViews>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142439C2-4A4F-4125-A1B1-034AF03278CF}">
   <dimension ref="A2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1562,7 +1562,9 @@
         <v>75</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="29">
@@ -1585,7 +1587,9 @@
         <v>76</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="43.5">
@@ -1608,7 +1612,9 @@
         <v>77</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="43.5">
@@ -1631,7 +1637,9 @@
         <v>78</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="29">
@@ -1654,7 +1662,9 @@
         <v>81</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="29">
@@ -1677,7 +1687,9 @@
         <v>82</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="29">
@@ -1700,7 +1712,9 @@
         <v>84</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="29">
@@ -1723,7 +1737,9 @@
         <v>83</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="29">
@@ -1746,7 +1762,9 @@
         <v>85</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="29">
@@ -1769,7 +1787,9 @@
         <v>86</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="29">
@@ -1792,7 +1812,9 @@
         <v>87</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="29">
@@ -1815,7 +1837,9 @@
         <v>88</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1840,7 +1864,9 @@
         <v>89</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="43.5">
@@ -1863,7 +1889,9 @@
         <v>90</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="58">
@@ -1886,7 +1914,9 @@
         <v>91</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="72.5">
@@ -1909,7 +1939,9 @@
         <v>92</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="43.5">
@@ -1932,7 +1964,9 @@
         <v>93</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="43.5">
@@ -1955,7 +1989,9 @@
         <v>94</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="43.5">
@@ -1978,7 +2014,9 @@
         <v>95</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="43.5">
@@ -2001,7 +2039,9 @@
         <v>97</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="43.5">
@@ -2024,7 +2064,9 @@
         <v>98</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="43.5">
@@ -2047,7 +2089,9 @@
         <v>99</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="43.5">
@@ -2070,7 +2114,9 @@
         <v>100</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="21">
@@ -2127,7 +2173,9 @@
         <v>130</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="29">
@@ -2150,7 +2198,9 @@
         <v>131</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="29">
@@ -2173,7 +2223,9 @@
         <v>131</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="29">
@@ -2196,7 +2248,9 @@
         <v>132</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="29">
@@ -2219,7 +2273,9 @@
         <v>145</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="29">
@@ -2242,7 +2298,9 @@
         <v>148</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="29">
@@ -2265,7 +2323,9 @@
         <v>133</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="29">
@@ -2288,7 +2348,9 @@
         <v>134</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="43.5">
@@ -2311,7 +2373,9 @@
         <v>135</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="29">
@@ -2334,7 +2398,9 @@
         <v>129</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="29">
@@ -2357,7 +2423,9 @@
         <v>153</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="29">
@@ -2380,7 +2448,9 @@
         <v>154</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="29">
@@ -2403,7 +2473,9 @@
         <v>136</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="43.5">
@@ -2426,7 +2498,9 @@
         <v>137</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="29">
@@ -2449,7 +2523,9 @@
         <v>138</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="43.5">
@@ -2472,7 +2548,9 @@
         <v>139</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
       <c r="I58" s="2" t="s">
         <v>43</v>
       </c>
@@ -2497,7 +2575,9 @@
         <v>140</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="29">
@@ -2520,7 +2600,9 @@
         <v>141</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
       <c r="I60" s="3"/>
     </row>
     <row r="62" spans="1:9" ht="17.5">
